--- a/mes-modules/base/src/main/resources/excel/materialTemplate.xlsx
+++ b/mes-modules/base/src/main/resources/excel/materialTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\IdeaProjects\mes-backend\mes-modules\base\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D6F4A-521A-41ED-B248-01C24D546FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C9245-1698-4CA1-A144-BC27274B4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="3640" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>物料规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -392,7 +396,7 @@
     <col min="6" max="6" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,6 +411,9 @@
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
